--- a/PROJECT/project 1.xlsx
+++ b/PROJECT/project 1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD2A75-2D69-48C1-82C6-6FB3DA6E0602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08970928-5C45-4900-ACED-CCED851491FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F7276BC5-64B3-40D6-9699-45591AD9F1F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F7276BC5-64B3-40D6-9699-45591AD9F1F9}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="TEST CASE" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="TESR SCENARIO" sheetId="3" r:id="rId3"/>
+    <sheet name="DEFECT REPORT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="409">
   <si>
     <t>FUNCTIONALITY ID</t>
   </si>
@@ -1229,12 +1230,207 @@
 5)click countinueshopping button
 6)select all filteration option</t>
   </si>
+  <si>
+    <t>to open about menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See proper validation message </t>
+  </si>
+  <si>
+    <t>TEST SUMMARY</t>
+  </si>
+  <si>
+    <t>DEFECT ID</t>
+  </si>
+  <si>
+    <t>DEFECT SUMMURY</t>
+  </si>
+  <si>
+    <t>REPRODUCED STEP</t>
+  </si>
+  <si>
+    <t>DEFECT TYPES</t>
+  </si>
+  <si>
+    <t>DEFECT SEVERITY</t>
+  </si>
+  <si>
+    <t>DEFECT PRIORITY</t>
+  </si>
+  <si>
+    <t>TESTER NAME</t>
+  </si>
+  <si>
+    <t>ATTACHMENT</t>
+  </si>
+  <si>
+    <t>Dimpal prajapati</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GPKR0hhlwTc_X-3ZsJpQ3f6E10j-NoTi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nkmPzzeGUsQw1w8MEr6xWyDXKhcRY8RL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sil5yRSBCfy8s5uQdzJbAw-9PJilHjXz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pztufy0N620N1GEC2TgFXxN2Dp9dbVmj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T9kVg9EcVzAcm2zwZ-OZt9c4wiaje5MM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MdZRYPLKNS11RDY2kt8gkojCwxJ4gobn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yGv3bnnye7xywPxTKkJfRfbjYLfCIBot/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VvG1HDW3VxxH-_ksiKNsfRlXOvmjjk8o/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xuBOyN3TNXh-Xc-mkdHutRKcanY4cc91/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LDGC72xkEoop7pUih0aTfXpt3az5rceD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HhWfapF8S8s78aqk7Ccks_rniNvYeSbD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HMIjNei0F-FYTukePFp7HE80H6DswRBZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aXSEShNddml8WdrKXerbPUyBzEmoi1T-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bVWhZ8iEYUsC2CqjeCR4Lxn-P_eIf6Jp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NYO44rjaHPITvk2xWKVl0-YZKxbuG23e/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13208Vf5q4x2oi-7LfiHpOeRniMpR_g0X/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eNHStxf72cNZWHvV1BjDWAVUU0hfMczM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bx_I1aiCiErf_6J4HewmSkW9FxtOI4BR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TXV3_72WDEYRzur_06soSX8WK_YYPiXP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JjqN-XG8slpT-4hJqzCXT2j_reX1TWsr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15B1ip-pYpwPrNKtfFupfmRZiPpncgFV4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15zrNQoc-DuDgFHYNqyOSc3cA2AtC9zX1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18TItCobchc7qFeg_Jwn7VxNz_XsvWUBD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OxMnT0YNpHY4SV0ALa8NjtRTmM0YW95w/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1q12eLjhy1L2sYGPXZ8fiJmYacmURMwMy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rR2yNzy_-XZXH0_TIqFJ7vIGupIXULAw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D1rZ4y6kyY3bUv_dtIeQ_32qjdBTVxYA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F26v8IhDFZKEDTvkoXSQvecfxXbN-lPO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_5PMRvaJTdA5wu4y6jQV-r02xfksRxYR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oLZCBnp2i9RrI9McjQ6oXhWI5MYgD9bV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xp9i5U-yNKB38ttHtIXoVXXDFSeE610N/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d-74gScRApzBcf9SU_mg_xCifu6u8wlt/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Hc8ZFMuF4UoSWQSQA9jlVjBigCQhbnIs/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DbtiztH1Hja471KfXLYalstr7h6phQrb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OFddyHcrPzjmlgFJVcLOOkjtsVMoZT2E/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/134_Kdp07yy1MmEhQqNsESNrvQOfpvODP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PTIcg3NnqvVstva_Kl19fsMaan8TEx58/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>functionality,security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high </t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>functinality,ui</t>
+  </si>
+  <si>
+    <t>functinality ui</t>
+  </si>
+  <si>
+    <t>functionality,ui</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>critcal functinality</t>
+  </si>
+  <si>
+    <t>critical functionality</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>functionality ui</t>
+  </si>
+  <si>
+    <t>functionality ,ui</t>
+  </si>
+  <si>
+    <t>functionality , ui</t>
+  </si>
+  <si>
+    <t>database defect,ui</t>
+  </si>
+  <si>
+    <t>functionality ,ui, database defect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,6 +1487,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1324,7 +1528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1545,11 +1749,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1600,6 +1827,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,17 +1939,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1709,21 +1957,50 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2050,32 +2327,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2340,16 +2617,16 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -2363,16 +2640,16 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -2617,16 +2894,16 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
     </row>
     <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
     </row>
     <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -2891,16 +3168,16 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
     </row>
     <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
     </row>
     <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
@@ -3187,16 +3464,16 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
     </row>
     <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="50"/>
     </row>
     <row r="112" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
@@ -3486,13 +3763,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E4AFA-F6C8-41D6-A3B3-3DA5207AB48C}">
   <dimension ref="A1:I347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
@@ -3503,68 +3780,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="55" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -4398,7 +4675,7 @@
         <v>96</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>137</v>
+        <v>344</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>160</v>
@@ -5307,7 +5584,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="13"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -5315,10 +5592,10 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="60"/>
+      <c r="I65" s="31"/>
     </row>
     <row r="66" spans="1:9" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="59"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="13"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -5326,31 +5603,31 @@
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="60"/>
+      <c r="I66" s="31"/>
     </row>
     <row r="67" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="63"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="76"/>
     </row>
     <row r="68" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="64"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="66"/>
+      <c r="A68" s="77"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="79"/>
     </row>
     <row r="69" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
@@ -6140,17 +6417,17 @@
       <c r="I97" s="27"/>
     </row>
     <row r="98" spans="1:9" s="24" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="58"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="81"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="82"/>
     </row>
     <row r="99" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="24"/>
@@ -7131,7 +7408,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="70" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="35" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
         <v>34</v>
       </c>
@@ -7150,7 +7427,7 @@
       <c r="F134" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G134" s="69" t="s">
+      <c r="G134" s="34" t="s">
         <v>224</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -7160,7 +7437,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="70" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="35" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
         <v>35</v>
       </c>
@@ -7189,7 +7466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="70" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="35" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
         <v>36</v>
       </c>
@@ -7218,7 +7495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="70" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="35" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
         <v>37</v>
       </c>
@@ -7276,7 +7553,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="70" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="35" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
         <v>39</v>
       </c>
@@ -7305,7 +7582,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="70" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="35" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
         <v>40</v>
       </c>
@@ -7334,7 +7611,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="70" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="35" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
         <v>41</v>
       </c>
@@ -7421,7 +7698,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="70" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="35" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
         <v>44</v>
       </c>
@@ -7770,7 +8047,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="68"/>
+      <c r="A156" s="33"/>
       <c r="B156" s="15"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -7781,31 +8058,31 @@
       <c r="I156" s="15"/>
     </row>
     <row r="157" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="67"/>
+      <c r="A157" s="32"/>
     </row>
     <row r="158" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="45" t="s">
+      <c r="A158" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="B158" s="51"/>
-      <c r="C158" s="51"/>
-      <c r="D158" s="51"/>
-      <c r="E158" s="51"/>
-      <c r="F158" s="51"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="51"/>
-      <c r="I158" s="52"/>
+      <c r="B158" s="69"/>
+      <c r="C158" s="69"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="69"/>
+      <c r="F158" s="69"/>
+      <c r="G158" s="69"/>
+      <c r="H158" s="69"/>
+      <c r="I158" s="70"/>
     </row>
     <row r="159" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="53"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="54"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="54"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="54"/>
-      <c r="I159" s="55"/>
+      <c r="A159" s="71"/>
+      <c r="B159" s="72"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="73"/>
     </row>
     <row r="160" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
@@ -9559,7 +9836,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="67"/>
+      <c r="A221" s="32"/>
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
       <c r="D221" s="17"/>
@@ -9570,7 +9847,7 @@
       <c r="I221" s="15"/>
     </row>
     <row r="222" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="67"/>
+      <c r="A222" s="32"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
       <c r="D222" s="17"/>
@@ -9581,40 +9858,40 @@
       <c r="I222" s="15"/>
     </row>
     <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="45" t="s">
+      <c r="A223" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="B223" s="51"/>
-      <c r="C223" s="51"/>
-      <c r="D223" s="51"/>
-      <c r="E223" s="51"/>
-      <c r="F223" s="51"/>
-      <c r="G223" s="51"/>
-      <c r="H223" s="51"/>
-      <c r="I223" s="52"/>
+      <c r="B223" s="69"/>
+      <c r="C223" s="69"/>
+      <c r="D223" s="69"/>
+      <c r="E223" s="69"/>
+      <c r="F223" s="69"/>
+      <c r="G223" s="69"/>
+      <c r="H223" s="69"/>
+      <c r="I223" s="70"/>
     </row>
     <row r="224" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="53"/>
-      <c r="B224" s="54"/>
-      <c r="C224" s="54"/>
-      <c r="D224" s="54"/>
-      <c r="E224" s="54"/>
-      <c r="F224" s="54"/>
-      <c r="G224" s="54"/>
-      <c r="H224" s="54"/>
-      <c r="I224" s="55"/>
-    </row>
-    <row r="225" spans="1:9" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:9" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="72"/>
-      <c r="B226" s="72"/>
-      <c r="C226" s="72"/>
-      <c r="D226" s="72"/>
-      <c r="E226" s="72"/>
-      <c r="F226" s="72"/>
-      <c r="G226" s="72"/>
-      <c r="H226" s="72"/>
-      <c r="I226" s="72"/>
+      <c r="A224" s="71"/>
+      <c r="B224" s="72"/>
+      <c r="C224" s="72"/>
+      <c r="D224" s="72"/>
+      <c r="E224" s="72"/>
+      <c r="F224" s="72"/>
+      <c r="G224" s="72"/>
+      <c r="H224" s="72"/>
+      <c r="I224" s="73"/>
+    </row>
+    <row r="225" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:9" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="37"/>
+      <c r="B226" s="37"/>
+      <c r="C226" s="37"/>
+      <c r="D226" s="37"/>
+      <c r="E226" s="37"/>
+      <c r="F226" s="37"/>
+      <c r="G226" s="37"/>
+      <c r="H226" s="37"/>
+      <c r="I226" s="37"/>
     </row>
     <row r="227" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="13">
@@ -10573,7 +10850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="70" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" s="35" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>34</v>
       </c>
@@ -10592,7 +10869,7 @@
       <c r="F260" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G260" s="69" t="s">
+      <c r="G260" s="34" t="s">
         <v>224</v>
       </c>
       <c r="H260" s="5" t="s">
@@ -11299,34 +11576,34 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="67"/>
+      <c r="A285" s="32"/>
     </row>
     <row r="286" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="67"/>
+      <c r="A286" s="32"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" s="45" t="s">
+      <c r="A287" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="B287" s="46"/>
-      <c r="C287" s="46"/>
-      <c r="D287" s="46"/>
-      <c r="E287" s="46"/>
-      <c r="F287" s="46"/>
-      <c r="G287" s="46"/>
-      <c r="H287" s="46"/>
-      <c r="I287" s="47"/>
+      <c r="B287" s="64"/>
+      <c r="C287" s="64"/>
+      <c r="D287" s="64"/>
+      <c r="E287" s="64"/>
+      <c r="F287" s="64"/>
+      <c r="G287" s="64"/>
+      <c r="H287" s="64"/>
+      <c r="I287" s="65"/>
     </row>
     <row r="288" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="48"/>
-      <c r="B288" s="49"/>
-      <c r="C288" s="49"/>
-      <c r="D288" s="49"/>
-      <c r="E288" s="49"/>
-      <c r="F288" s="49"/>
-      <c r="G288" s="49"/>
-      <c r="H288" s="49"/>
-      <c r="I288" s="50"/>
+      <c r="A288" s="66"/>
+      <c r="B288" s="67"/>
+      <c r="C288" s="67"/>
+      <c r="D288" s="67"/>
+      <c r="E288" s="67"/>
+      <c r="F288" s="67"/>
+      <c r="G288" s="67"/>
+      <c r="H288" s="67"/>
+      <c r="I288" s="68"/>
     </row>
     <row r="289" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="13">
@@ -13064,12 +13341,4902 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF12188-C355-4328-89CA-7F87DF154BFC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>4</v>
+      </c>
+      <c r="B6" s="39">
+        <v>2</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9">
+        <v>301</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9">
+        <v>400</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9">
+        <v>401</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9">
+        <v>402</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9">
+        <v>403</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>36</v>
+      </c>
+      <c r="B13" s="9">
+        <v>404</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>37</v>
+      </c>
+      <c r="B14" s="9">
+        <v>405</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9">
+        <v>406</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9">
+        <v>407</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9">
+        <v>408</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9">
+        <v>409</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9">
+        <v>410</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9">
+        <v>411</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9">
+        <v>412</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9">
+        <v>413</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>56</v>
+      </c>
+      <c r="B23" s="9">
+        <v>413</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>57</v>
+      </c>
+      <c r="B24" s="9">
+        <v>413</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>59</v>
+      </c>
+      <c r="B25" s="9">
+        <v>414</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>60</v>
+      </c>
+      <c r="B26" s="9">
+        <v>500</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+    </row>
+    <row r="29" spans="1:7" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+    </row>
+    <row r="30" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+    </row>
+    <row r="31" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+    </row>
+    <row r="34" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+    </row>
+    <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+    </row>
+    <row r="37" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+    </row>
+    <row r="38" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+    </row>
+    <row r="39" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+    </row>
+    <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="90"/>
+    </row>
+    <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="90"/>
+    </row>
+    <row r="42" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
+    </row>
+    <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="90"/>
+    </row>
+    <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="90"/>
+    </row>
+    <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="90"/>
+    </row>
+    <row r="46" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="90"/>
+    </row>
+    <row r="47" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
+    </row>
+    <row r="48" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="90"/>
+    </row>
+    <row r="49" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="90"/>
+    </row>
+    <row r="50" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="90"/>
+    </row>
+    <row r="51" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="90"/>
+    </row>
+    <row r="52" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="90"/>
+    </row>
+    <row r="53" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="90"/>
+    </row>
+    <row r="54" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="90"/>
+    </row>
+    <row r="55" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
+    </row>
+    <row r="56" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="90"/>
+    </row>
+    <row r="57" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="90"/>
+    </row>
+    <row r="58" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="90"/>
+    </row>
+    <row r="59" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="90"/>
+    </row>
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+    </row>
+    <row r="61" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+    </row>
+    <row r="65" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+    </row>
+    <row r="66" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+    </row>
+    <row r="68" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+    </row>
+    <row r="69" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+    </row>
+    <row r="70" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="89"/>
+    </row>
+    <row r="71" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="90"/>
+    </row>
+    <row r="72" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="90"/>
+    </row>
+    <row r="73" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="90"/>
+    </row>
+    <row r="74" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="90"/>
+    </row>
+    <row r="75" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="90"/>
+    </row>
+    <row r="76" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="90"/>
+    </row>
+    <row r="77" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="90"/>
+    </row>
+    <row r="78" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="90"/>
+    </row>
+    <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="90"/>
+    </row>
+    <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="90"/>
+    </row>
+    <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="90"/>
+    </row>
+    <row r="82" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="90"/>
+    </row>
+    <row r="83" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="90"/>
+    </row>
+    <row r="84" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="90"/>
+    </row>
+    <row r="85" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="90"/>
+    </row>
+    <row r="86" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="90"/>
+    </row>
+    <row r="87" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="90"/>
+    </row>
+    <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="90"/>
+    </row>
+    <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+    </row>
+    <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="89"/>
+    </row>
+    <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="89"/>
+    </row>
+    <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="89"/>
+    </row>
+    <row r="97" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="89"/>
+      <c r="G97" s="89"/>
+    </row>
+    <row r="98" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="89"/>
+    </row>
+    <row r="99" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="89"/>
+    </row>
+    <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="89"/>
+    </row>
+    <row r="102" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="89"/>
+      <c r="F102" s="89"/>
+      <c r="G102" s="89"/>
+    </row>
+    <row r="103" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="89"/>
+      <c r="G103" s="89"/>
+    </row>
+    <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="15"/>
+    </row>
+    <row r="106" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="89"/>
+      <c r="G106" s="89"/>
+    </row>
+    <row r="107" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
+      <c r="G107" s="89"/>
+    </row>
+    <row r="108" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="89"/>
+      <c r="G108" s="89"/>
+    </row>
+    <row r="109" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="89"/>
+      <c r="G109" s="89"/>
+    </row>
+    <row r="110" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="89"/>
+    </row>
+    <row r="111" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="89"/>
+      <c r="G111" s="89"/>
+    </row>
+    <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
+      <c r="G112" s="89"/>
+    </row>
+    <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="89"/>
+      <c r="G113" s="89"/>
+    </row>
+    <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="89"/>
+      <c r="F114" s="89"/>
+      <c r="G114" s="89"/>
+    </row>
+    <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="89"/>
+      <c r="G115" s="89"/>
+    </row>
+    <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="89"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="89"/>
+      <c r="G116" s="89"/>
+    </row>
+    <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+    </row>
+    <row r="118" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+    </row>
+    <row r="119" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="93"/>
+    </row>
+    <row r="120" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="91"/>
+      <c r="B120" s="91"/>
+      <c r="C120" s="91"/>
+      <c r="D120" s="91"/>
+      <c r="E120" s="91"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="91"/>
+    </row>
+    <row r="121" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="91"/>
+      <c r="B121" s="91"/>
+      <c r="C121" s="91"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+    </row>
+    <row r="122" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="123" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="15"/>
+    </row>
+    <row r="124" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="89"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="89"/>
+      <c r="G124" s="89"/>
+    </row>
+    <row r="125" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="89"/>
+      <c r="G125" s="89"/>
+    </row>
+    <row r="126" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+    </row>
+    <row r="127" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="89"/>
+      <c r="E127" s="89"/>
+      <c r="F127" s="89"/>
+      <c r="G127" s="89"/>
+    </row>
+    <row r="128" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="89"/>
+      <c r="D128" s="89"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="89"/>
+    </row>
+    <row r="129" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="89"/>
+      <c r="E129" s="89"/>
+      <c r="F129" s="89"/>
+      <c r="G129" s="89"/>
+    </row>
+    <row r="130" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="89"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="89"/>
+      <c r="G130" s="89"/>
+    </row>
+    <row r="131" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="89"/>
+      <c r="E131" s="89"/>
+      <c r="F131" s="89"/>
+      <c r="G131" s="90"/>
+    </row>
+    <row r="132" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="89"/>
+      <c r="E132" s="89"/>
+      <c r="F132" s="89"/>
+      <c r="G132" s="90"/>
+    </row>
+    <row r="133" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="89"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="89"/>
+      <c r="G133" s="90"/>
+    </row>
+    <row r="134" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="89"/>
+      <c r="E134" s="89"/>
+      <c r="F134" s="89"/>
+      <c r="G134" s="90"/>
+    </row>
+    <row r="135" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="89"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="89"/>
+      <c r="G135" s="90"/>
+    </row>
+    <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="89"/>
+      <c r="G136" s="90"/>
+    </row>
+    <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="89"/>
+      <c r="F137" s="89"/>
+      <c r="G137" s="90"/>
+    </row>
+    <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="89"/>
+      <c r="G138" s="90"/>
+    </row>
+    <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="89"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="89"/>
+      <c r="G139" s="90"/>
+    </row>
+    <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="89"/>
+      <c r="F140" s="89"/>
+      <c r="G140" s="90"/>
+    </row>
+    <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="89"/>
+      <c r="E141" s="89"/>
+      <c r="F141" s="89"/>
+      <c r="G141" s="90"/>
+    </row>
+    <row r="142" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="15"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="89"/>
+      <c r="E142" s="89"/>
+      <c r="F142" s="89"/>
+      <c r="G142" s="90"/>
+    </row>
+    <row r="143" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="89"/>
+      <c r="E143" s="89"/>
+      <c r="F143" s="89"/>
+      <c r="G143" s="90"/>
+    </row>
+    <row r="144" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="89"/>
+      <c r="E144" s="89"/>
+      <c r="F144" s="89"/>
+      <c r="G144" s="90"/>
+    </row>
+    <row r="145" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="89"/>
+      <c r="E145" s="89"/>
+      <c r="F145" s="89"/>
+      <c r="G145" s="90"/>
+    </row>
+    <row r="146" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="89"/>
+      <c r="E146" s="89"/>
+      <c r="F146" s="89"/>
+      <c r="G146" s="90"/>
+    </row>
+    <row r="147" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="89"/>
+      <c r="E147" s="89"/>
+      <c r="F147" s="89"/>
+      <c r="G147" s="90"/>
+    </row>
+    <row r="148" spans="1:7" s="16" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="89"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="89"/>
+      <c r="G148" s="90"/>
+    </row>
+    <row r="149" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+    </row>
+    <row r="150" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="35"/>
+    </row>
+    <row r="151" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="15"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="89"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="89"/>
+    </row>
+    <row r="152" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="89"/>
+    </row>
+    <row r="153" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+    </row>
+    <row r="154" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+    </row>
+    <row r="155" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="15"/>
+    </row>
+    <row r="156" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="15"/>
+    </row>
+    <row r="157" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="15"/>
+    </row>
+    <row r="158" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="15"/>
+    </row>
+    <row r="159" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="15"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="15"/>
+    </row>
+    <row r="160" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="15"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="15"/>
+    </row>
+    <row r="161" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="15"/>
+    </row>
+    <row r="162" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="15"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="15"/>
+    </row>
+    <row r="163" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="15"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="15"/>
+    </row>
+    <row r="164" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="15"/>
+    </row>
+    <row r="165" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="15"/>
+    </row>
+    <row r="166" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="15"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="15"/>
+    </row>
+    <row r="167" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="15"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="89"/>
+      <c r="D167" s="89"/>
+      <c r="E167" s="89"/>
+      <c r="F167" s="89"/>
+      <c r="G167" s="89"/>
+    </row>
+    <row r="168" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="15"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="89"/>
+      <c r="D168" s="89"/>
+      <c r="E168" s="89"/>
+      <c r="F168" s="89"/>
+      <c r="G168" s="89"/>
+    </row>
+    <row r="169" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="15"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="89"/>
+      <c r="D169" s="89"/>
+      <c r="E169" s="89"/>
+      <c r="F169" s="89"/>
+      <c r="G169" s="89"/>
+    </row>
+    <row r="170" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="15"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="89"/>
+      <c r="D170" s="89"/>
+      <c r="E170" s="89"/>
+      <c r="F170" s="89"/>
+      <c r="G170" s="89"/>
+    </row>
+    <row r="171" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="15"/>
+      <c r="B171" s="35"/>
+      <c r="C171" s="89"/>
+      <c r="D171" s="89"/>
+      <c r="E171" s="89"/>
+      <c r="F171" s="89"/>
+      <c r="G171" s="89"/>
+    </row>
+    <row r="172" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="15"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="89"/>
+      <c r="D172" s="89"/>
+      <c r="E172" s="89"/>
+      <c r="F172" s="89"/>
+      <c r="G172" s="89"/>
+    </row>
+    <row r="173" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="15"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="89"/>
+      <c r="D173" s="89"/>
+      <c r="E173" s="89"/>
+      <c r="F173" s="89"/>
+      <c r="G173" s="89"/>
+    </row>
+    <row r="174" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="15"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="89"/>
+      <c r="D174" s="89"/>
+      <c r="E174" s="89"/>
+      <c r="F174" s="89"/>
+      <c r="G174" s="89"/>
+    </row>
+    <row r="175" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="15"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="89"/>
+      <c r="D175" s="89"/>
+      <c r="E175" s="89"/>
+      <c r="F175" s="89"/>
+      <c r="G175" s="89"/>
+    </row>
+    <row r="176" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="15"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="89"/>
+      <c r="D176" s="89"/>
+      <c r="E176" s="89"/>
+      <c r="F176" s="89"/>
+      <c r="G176" s="89"/>
+    </row>
+    <row r="177" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="15"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+    </row>
+    <row r="178" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="15"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+    </row>
+    <row r="179" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="15"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+    </row>
+    <row r="180" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="15"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="89"/>
+      <c r="D180" s="89"/>
+      <c r="E180" s="89"/>
+      <c r="F180" s="89"/>
+      <c r="G180" s="89"/>
+    </row>
+    <row r="181" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="15"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+    </row>
+    <row r="182" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="15"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+    </row>
+    <row r="183" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="93"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+    </row>
+    <row r="184" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="93"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+    </row>
+    <row r="185" spans="1:7" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="91"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="91"/>
+      <c r="D185" s="91"/>
+      <c r="E185" s="91"/>
+      <c r="F185" s="91"/>
+      <c r="G185" s="91"/>
+    </row>
+    <row r="186" spans="1:7" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="91"/>
+      <c r="B186" s="91"/>
+      <c r="C186" s="91"/>
+      <c r="D186" s="91"/>
+      <c r="E186" s="91"/>
+      <c r="F186" s="91"/>
+      <c r="G186" s="91"/>
+    </row>
+    <row r="187" spans="1:7" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:7" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="15"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="15"/>
+    </row>
+    <row r="190" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="15"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="89"/>
+      <c r="E190" s="89"/>
+      <c r="F190" s="89"/>
+      <c r="G190" s="89"/>
+    </row>
+    <row r="191" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="15"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="89"/>
+      <c r="D191" s="89"/>
+      <c r="E191" s="89"/>
+      <c r="F191" s="89"/>
+      <c r="G191" s="89"/>
+    </row>
+    <row r="192" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="15"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="17"/>
+    </row>
+    <row r="193" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="15"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="89"/>
+      <c r="D193" s="89"/>
+      <c r="E193" s="89"/>
+      <c r="F193" s="89"/>
+      <c r="G193" s="89"/>
+    </row>
+    <row r="194" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="15"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="89"/>
+      <c r="D194" s="89"/>
+      <c r="E194" s="89"/>
+      <c r="F194" s="89"/>
+      <c r="G194" s="89"/>
+    </row>
+    <row r="195" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="15"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="89"/>
+      <c r="D195" s="89"/>
+      <c r="E195" s="89"/>
+      <c r="F195" s="89"/>
+      <c r="G195" s="89"/>
+    </row>
+    <row r="196" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="15"/>
+      <c r="B196" s="35"/>
+      <c r="C196" s="89"/>
+      <c r="D196" s="89"/>
+      <c r="E196" s="89"/>
+      <c r="F196" s="89"/>
+      <c r="G196" s="89"/>
+    </row>
+    <row r="197" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="15"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="89"/>
+      <c r="D197" s="89"/>
+      <c r="E197" s="89"/>
+      <c r="F197" s="89"/>
+      <c r="G197" s="90"/>
+    </row>
+    <row r="198" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="15"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="89"/>
+      <c r="D198" s="89"/>
+      <c r="E198" s="89"/>
+      <c r="F198" s="89"/>
+      <c r="G198" s="90"/>
+    </row>
+    <row r="199" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="15"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="89"/>
+      <c r="D199" s="89"/>
+      <c r="E199" s="89"/>
+      <c r="F199" s="89"/>
+      <c r="G199" s="90"/>
+    </row>
+    <row r="200" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="15"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="89"/>
+      <c r="D200" s="89"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="89"/>
+      <c r="G200" s="90"/>
+    </row>
+    <row r="201" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="15"/>
+      <c r="B201" s="35"/>
+      <c r="C201" s="89"/>
+      <c r="D201" s="89"/>
+      <c r="E201" s="89"/>
+      <c r="F201" s="89"/>
+      <c r="G201" s="90"/>
+    </row>
+    <row r="202" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="15"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="89"/>
+      <c r="D202" s="89"/>
+      <c r="E202" s="89"/>
+      <c r="F202" s="89"/>
+      <c r="G202" s="90"/>
+    </row>
+    <row r="203" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="15"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="89"/>
+      <c r="D203" s="89"/>
+      <c r="E203" s="89"/>
+      <c r="F203" s="89"/>
+      <c r="G203" s="90"/>
+    </row>
+    <row r="204" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="15"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="89"/>
+      <c r="D204" s="89"/>
+      <c r="E204" s="89"/>
+      <c r="F204" s="89"/>
+      <c r="G204" s="90"/>
+    </row>
+    <row r="205" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="15"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="89"/>
+      <c r="D205" s="89"/>
+      <c r="E205" s="89"/>
+      <c r="F205" s="89"/>
+      <c r="G205" s="90"/>
+    </row>
+    <row r="206" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="15"/>
+      <c r="B206" s="35"/>
+      <c r="C206" s="89"/>
+      <c r="D206" s="89"/>
+      <c r="E206" s="89"/>
+      <c r="F206" s="89"/>
+      <c r="G206" s="90"/>
+    </row>
+    <row r="207" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="15"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="89"/>
+      <c r="D207" s="89"/>
+      <c r="E207" s="89"/>
+      <c r="F207" s="89"/>
+      <c r="G207" s="90"/>
+    </row>
+    <row r="208" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="15"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="89"/>
+      <c r="D208" s="89"/>
+      <c r="E208" s="89"/>
+      <c r="F208" s="89"/>
+      <c r="G208" s="90"/>
+    </row>
+    <row r="209" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="15"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="89"/>
+      <c r="D209" s="89"/>
+      <c r="E209" s="89"/>
+      <c r="F209" s="89"/>
+      <c r="G209" s="90"/>
+    </row>
+    <row r="210" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="15"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="89"/>
+      <c r="D210" s="89"/>
+      <c r="E210" s="89"/>
+      <c r="F210" s="89"/>
+      <c r="G210" s="90"/>
+    </row>
+    <row r="211" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="15"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="89"/>
+      <c r="D211" s="89"/>
+      <c r="E211" s="89"/>
+      <c r="F211" s="89"/>
+      <c r="G211" s="90"/>
+    </row>
+    <row r="212" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="15"/>
+      <c r="B212" s="35"/>
+      <c r="C212" s="89"/>
+      <c r="D212" s="89"/>
+      <c r="E212" s="89"/>
+      <c r="F212" s="89"/>
+      <c r="G212" s="90"/>
+    </row>
+    <row r="213" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="15"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="89"/>
+      <c r="D213" s="89"/>
+      <c r="E213" s="89"/>
+      <c r="F213" s="89"/>
+      <c r="G213" s="90"/>
+    </row>
+    <row r="214" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="15"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="89"/>
+      <c r="D214" s="89"/>
+      <c r="E214" s="89"/>
+      <c r="F214" s="89"/>
+      <c r="G214" s="90"/>
+    </row>
+    <row r="215" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="15"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+    </row>
+    <row r="216" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="15"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="35"/>
+      <c r="D216" s="89"/>
+      <c r="E216" s="35"/>
+      <c r="F216" s="35"/>
+      <c r="G216" s="35"/>
+    </row>
+    <row r="217" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="15"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="35"/>
+      <c r="D217" s="89"/>
+      <c r="E217" s="35"/>
+      <c r="F217" s="35"/>
+      <c r="G217" s="89"/>
+    </row>
+    <row r="218" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="15"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="89"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="35"/>
+      <c r="G218" s="89"/>
+    </row>
+    <row r="219" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="15"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+    </row>
+    <row r="220" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="15"/>
+      <c r="B220" s="15"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+    </row>
+    <row r="221" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="15"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="15"/>
+    </row>
+    <row r="222" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="15"/>
+      <c r="D222" s="89"/>
+      <c r="E222" s="89"/>
+      <c r="F222" s="92"/>
+      <c r="G222" s="89"/>
+    </row>
+    <row r="223" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="15"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="15"/>
+    </row>
+    <row r="224" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="15"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="17"/>
+      <c r="G224" s="15"/>
+    </row>
+    <row r="225" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="15"/>
+      <c r="D225" s="89"/>
+      <c r="E225" s="89"/>
+      <c r="F225" s="89"/>
+      <c r="G225" s="89"/>
+    </row>
+    <row r="226" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="15"/>
+      <c r="B226" s="15"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="15"/>
+    </row>
+    <row r="227" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="15"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="15"/>
+    </row>
+    <row r="228" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="15"/>
+      <c r="D228" s="89"/>
+      <c r="E228" s="89"/>
+      <c r="F228" s="89"/>
+      <c r="G228" s="89"/>
+    </row>
+    <row r="229" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="15"/>
+      <c r="D229" s="89"/>
+      <c r="E229" s="89"/>
+      <c r="F229" s="89"/>
+      <c r="G229" s="89"/>
+    </row>
+    <row r="230" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="15"/>
+      <c r="B230" s="15"/>
+      <c r="C230" s="15"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="15"/>
+    </row>
+    <row r="231" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="15"/>
+      <c r="B231" s="15"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="15"/>
+    </row>
+    <row r="232" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="15"/>
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="17"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="15"/>
+    </row>
+    <row r="233" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="15"/>
+      <c r="B233" s="35"/>
+      <c r="C233" s="89"/>
+      <c r="D233" s="89"/>
+      <c r="E233" s="89"/>
+      <c r="F233" s="89"/>
+      <c r="G233" s="89"/>
+    </row>
+    <row r="234" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="15"/>
+      <c r="B234" s="35"/>
+      <c r="C234" s="89"/>
+      <c r="D234" s="89"/>
+      <c r="E234" s="89"/>
+      <c r="F234" s="89"/>
+      <c r="G234" s="89"/>
+    </row>
+    <row r="235" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="15"/>
+      <c r="B235" s="35"/>
+      <c r="C235" s="89"/>
+      <c r="D235" s="89"/>
+      <c r="E235" s="89"/>
+      <c r="F235" s="89"/>
+      <c r="G235" s="89"/>
+    </row>
+    <row r="236" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="15"/>
+      <c r="B236" s="35"/>
+      <c r="C236" s="89"/>
+      <c r="D236" s="89"/>
+      <c r="E236" s="89"/>
+      <c r="F236" s="89"/>
+      <c r="G236" s="89"/>
+    </row>
+    <row r="237" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="15"/>
+      <c r="B237" s="35"/>
+      <c r="C237" s="89"/>
+      <c r="D237" s="89"/>
+      <c r="E237" s="89"/>
+      <c r="F237" s="89"/>
+      <c r="G237" s="89"/>
+    </row>
+    <row r="238" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="15"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="89"/>
+      <c r="D238" s="89"/>
+      <c r="E238" s="89"/>
+      <c r="F238" s="89"/>
+      <c r="G238" s="89"/>
+    </row>
+    <row r="239" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="15"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="89"/>
+      <c r="D239" s="89"/>
+      <c r="E239" s="89"/>
+      <c r="F239" s="89"/>
+      <c r="G239" s="89"/>
+    </row>
+    <row r="240" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="15"/>
+      <c r="B240" s="35"/>
+      <c r="C240" s="89"/>
+      <c r="D240" s="89"/>
+      <c r="E240" s="89"/>
+      <c r="F240" s="89"/>
+      <c r="G240" s="89"/>
+    </row>
+    <row r="241" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="15"/>
+      <c r="B241" s="35"/>
+      <c r="C241" s="89"/>
+      <c r="D241" s="89"/>
+      <c r="E241" s="89"/>
+      <c r="F241" s="89"/>
+      <c r="G241" s="89"/>
+    </row>
+    <row r="242" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="15"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="89"/>
+      <c r="D242" s="89"/>
+      <c r="E242" s="89"/>
+      <c r="F242" s="89"/>
+      <c r="G242" s="89"/>
+    </row>
+    <row r="243" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="15"/>
+      <c r="B243" s="15"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+    </row>
+    <row r="244" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="15"/>
+      <c r="B244" s="15"/>
+      <c r="C244" s="17"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="17"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17"/>
+    </row>
+    <row r="245" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="15"/>
+      <c r="C245" s="89"/>
+      <c r="D245" s="89"/>
+      <c r="E245" s="89"/>
+      <c r="F245" s="89"/>
+      <c r="G245" s="89"/>
+    </row>
+    <row r="246" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="15"/>
+      <c r="B246" s="15"/>
+      <c r="C246" s="17"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="17"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17"/>
+    </row>
+    <row r="247" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="93"/>
+    </row>
+    <row r="248" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="93"/>
+    </row>
+    <row r="249" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="91"/>
+      <c r="B249" s="94"/>
+      <c r="C249" s="94"/>
+      <c r="D249" s="94"/>
+      <c r="E249" s="94"/>
+      <c r="F249" s="94"/>
+      <c r="G249" s="94"/>
+    </row>
+    <row r="250" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="94"/>
+      <c r="B250" s="94"/>
+      <c r="C250" s="94"/>
+      <c r="D250" s="94"/>
+      <c r="E250" s="94"/>
+      <c r="F250" s="94"/>
+      <c r="G250" s="94"/>
+    </row>
+    <row r="251" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="15"/>
+      <c r="B251" s="15"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="15"/>
+    </row>
+    <row r="252" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="15"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="35"/>
+      <c r="D252" s="89"/>
+      <c r="E252" s="89"/>
+      <c r="F252" s="89"/>
+      <c r="G252" s="89"/>
+    </row>
+    <row r="253" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="15"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="89"/>
+      <c r="D253" s="89"/>
+      <c r="E253" s="89"/>
+      <c r="F253" s="89"/>
+      <c r="G253" s="89"/>
+    </row>
+    <row r="254" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="15"/>
+      <c r="B254" s="15"/>
+      <c r="C254" s="17"/>
+      <c r="D254" s="17"/>
+      <c r="E254" s="17"/>
+      <c r="F254" s="17"/>
+      <c r="G254" s="17"/>
+    </row>
+    <row r="255" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="15"/>
+      <c r="B255" s="35"/>
+      <c r="C255" s="89"/>
+      <c r="D255" s="89"/>
+      <c r="E255" s="89"/>
+      <c r="F255" s="89"/>
+      <c r="G255" s="89"/>
+    </row>
+    <row r="256" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="15"/>
+      <c r="B256" s="35"/>
+      <c r="C256" s="89"/>
+      <c r="D256" s="89"/>
+      <c r="E256" s="89"/>
+      <c r="F256" s="89"/>
+      <c r="G256" s="89"/>
+    </row>
+    <row r="257" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="15"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="89"/>
+      <c r="D257" s="89"/>
+      <c r="E257" s="89"/>
+      <c r="F257" s="89"/>
+      <c r="G257" s="89"/>
+    </row>
+    <row r="258" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="15"/>
+      <c r="B258" s="35"/>
+      <c r="C258" s="89"/>
+      <c r="D258" s="89"/>
+      <c r="E258" s="89"/>
+      <c r="F258" s="89"/>
+      <c r="G258" s="89"/>
+    </row>
+    <row r="259" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="15"/>
+      <c r="B259" s="35"/>
+      <c r="C259" s="89"/>
+      <c r="D259" s="89"/>
+      <c r="E259" s="89"/>
+      <c r="F259" s="89"/>
+      <c r="G259" s="90"/>
+    </row>
+    <row r="260" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="15"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="89"/>
+      <c r="D260" s="89"/>
+      <c r="E260" s="89"/>
+      <c r="F260" s="89"/>
+      <c r="G260" s="90"/>
+    </row>
+    <row r="261" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="15"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="89"/>
+      <c r="D261" s="89"/>
+      <c r="E261" s="89"/>
+      <c r="F261" s="89"/>
+      <c r="G261" s="90"/>
+    </row>
+    <row r="262" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="15"/>
+      <c r="B262" s="35"/>
+      <c r="C262" s="89"/>
+      <c r="D262" s="89"/>
+      <c r="E262" s="89"/>
+      <c r="F262" s="89"/>
+      <c r="G262" s="90"/>
+    </row>
+    <row r="263" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="15"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="89"/>
+      <c r="D263" s="89"/>
+      <c r="E263" s="89"/>
+      <c r="F263" s="89"/>
+      <c r="G263" s="90"/>
+    </row>
+    <row r="264" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="15"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="89"/>
+      <c r="D264" s="89"/>
+      <c r="E264" s="89"/>
+      <c r="F264" s="89"/>
+      <c r="G264" s="90"/>
+    </row>
+    <row r="265" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="15"/>
+      <c r="B265" s="35"/>
+      <c r="C265" s="89"/>
+      <c r="D265" s="89"/>
+      <c r="E265" s="89"/>
+      <c r="F265" s="89"/>
+      <c r="G265" s="90"/>
+    </row>
+    <row r="266" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="15"/>
+      <c r="B266" s="35"/>
+      <c r="C266" s="89"/>
+      <c r="D266" s="89"/>
+      <c r="E266" s="89"/>
+      <c r="F266" s="89"/>
+      <c r="G266" s="90"/>
+    </row>
+    <row r="267" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="15"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="89"/>
+      <c r="D267" s="89"/>
+      <c r="E267" s="89"/>
+      <c r="F267" s="89"/>
+      <c r="G267" s="90"/>
+    </row>
+    <row r="268" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="15"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="89"/>
+      <c r="D268" s="89"/>
+      <c r="E268" s="89"/>
+      <c r="F268" s="89"/>
+      <c r="G268" s="90"/>
+    </row>
+    <row r="269" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="15"/>
+      <c r="B269" s="35"/>
+      <c r="C269" s="89"/>
+      <c r="D269" s="89"/>
+      <c r="E269" s="89"/>
+      <c r="F269" s="89"/>
+      <c r="G269" s="90"/>
+    </row>
+    <row r="270" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="15"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="89"/>
+      <c r="D270" s="89"/>
+      <c r="E270" s="89"/>
+      <c r="F270" s="89"/>
+      <c r="G270" s="90"/>
+    </row>
+    <row r="271" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="15"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="89"/>
+      <c r="D271" s="89"/>
+      <c r="E271" s="89"/>
+      <c r="F271" s="89"/>
+      <c r="G271" s="90"/>
+    </row>
+    <row r="272" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="15"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="89"/>
+      <c r="D272" s="89"/>
+      <c r="E272" s="89"/>
+      <c r="F272" s="89"/>
+      <c r="G272" s="90"/>
+    </row>
+    <row r="273" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="15"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="89"/>
+      <c r="D273" s="89"/>
+      <c r="E273" s="89"/>
+      <c r="F273" s="89"/>
+      <c r="G273" s="90"/>
+    </row>
+    <row r="274" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="15"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="89"/>
+      <c r="D274" s="89"/>
+      <c r="E274" s="89"/>
+      <c r="F274" s="89"/>
+      <c r="G274" s="90"/>
+    </row>
+    <row r="275" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="15"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="89"/>
+      <c r="D275" s="89"/>
+      <c r="E275" s="89"/>
+      <c r="F275" s="89"/>
+      <c r="G275" s="90"/>
+    </row>
+    <row r="276" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="15"/>
+      <c r="B276" s="35"/>
+      <c r="C276" s="89"/>
+      <c r="D276" s="89"/>
+      <c r="E276" s="89"/>
+      <c r="F276" s="89"/>
+      <c r="G276" s="90"/>
+    </row>
+    <row r="277" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="15"/>
+      <c r="B277" s="15"/>
+      <c r="C277" s="15"/>
+      <c r="D277" s="17"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="15"/>
+      <c r="G277" s="15"/>
+    </row>
+    <row r="278" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="15"/>
+      <c r="B278" s="35"/>
+      <c r="C278" s="35"/>
+      <c r="D278" s="89"/>
+      <c r="E278" s="35"/>
+      <c r="F278" s="35"/>
+      <c r="G278" s="35"/>
+    </row>
+    <row r="279" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="15"/>
+      <c r="B279" s="35"/>
+      <c r="C279" s="35"/>
+      <c r="D279" s="89"/>
+      <c r="E279" s="35"/>
+      <c r="F279" s="35"/>
+      <c r="G279" s="89"/>
+    </row>
+    <row r="280" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="15"/>
+      <c r="B280" s="35"/>
+      <c r="C280" s="35"/>
+      <c r="D280" s="89"/>
+      <c r="E280" s="35"/>
+      <c r="F280" s="35"/>
+      <c r="G280" s="89"/>
+    </row>
+    <row r="281" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="15"/>
+      <c r="B281" s="15"/>
+      <c r="C281" s="15"/>
+      <c r="D281" s="17"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="15"/>
+    </row>
+    <row r="282" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="15"/>
+      <c r="B282" s="15"/>
+      <c r="C282" s="15"/>
+      <c r="D282" s="17"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="15"/>
+    </row>
+    <row r="283" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="15"/>
+      <c r="B283" s="15"/>
+      <c r="C283" s="15"/>
+      <c r="D283" s="17"/>
+      <c r="E283" s="15"/>
+      <c r="F283" s="17"/>
+      <c r="G283" s="15"/>
+    </row>
+    <row r="284" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="15"/>
+      <c r="B284" s="15"/>
+      <c r="C284" s="15"/>
+      <c r="D284" s="17"/>
+      <c r="E284" s="17"/>
+      <c r="F284" s="17"/>
+      <c r="G284" s="15"/>
+    </row>
+    <row r="285" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="15"/>
+      <c r="D285" s="89"/>
+      <c r="E285" s="89"/>
+      <c r="F285" s="89"/>
+      <c r="G285" s="89"/>
+    </row>
+    <row r="286" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="15"/>
+      <c r="B286" s="15"/>
+      <c r="C286" s="15"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="17"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="15"/>
+    </row>
+    <row r="287" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="15"/>
+      <c r="B287" s="15"/>
+      <c r="C287" s="15"/>
+      <c r="D287" s="17"/>
+      <c r="E287" s="17"/>
+      <c r="F287" s="17"/>
+      <c r="G287" s="15"/>
+    </row>
+    <row r="288" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="15"/>
+      <c r="B288" s="15"/>
+      <c r="C288" s="15"/>
+      <c r="D288" s="17"/>
+      <c r="E288" s="17"/>
+      <c r="F288" s="17"/>
+      <c r="G288" s="15"/>
+    </row>
+    <row r="289" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="15"/>
+      <c r="D289" s="89"/>
+      <c r="E289" s="89"/>
+      <c r="F289" s="89"/>
+      <c r="G289" s="89"/>
+    </row>
+    <row r="290" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="15"/>
+      <c r="B290" s="15"/>
+      <c r="C290" s="15"/>
+      <c r="D290" s="17"/>
+      <c r="E290" s="17"/>
+      <c r="F290" s="17"/>
+      <c r="G290" s="15"/>
+    </row>
+    <row r="291" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="15"/>
+      <c r="B291" s="15"/>
+      <c r="C291" s="15"/>
+      <c r="D291" s="17"/>
+      <c r="E291" s="17"/>
+      <c r="F291" s="17"/>
+      <c r="G291" s="15"/>
+    </row>
+    <row r="292" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="15"/>
+      <c r="B292" s="15"/>
+      <c r="C292" s="15"/>
+      <c r="D292" s="17"/>
+      <c r="E292" s="17"/>
+      <c r="F292" s="17"/>
+      <c r="G292" s="15"/>
+    </row>
+    <row r="293" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="15"/>
+      <c r="B293" s="15"/>
+      <c r="C293" s="15"/>
+      <c r="D293" s="17"/>
+      <c r="E293" s="17"/>
+      <c r="F293" s="17"/>
+      <c r="G293" s="15"/>
+    </row>
+    <row r="294" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="15"/>
+      <c r="B294" s="15"/>
+      <c r="C294" s="15"/>
+      <c r="D294" s="17"/>
+      <c r="E294" s="17"/>
+      <c r="F294" s="17"/>
+      <c r="G294" s="15"/>
+    </row>
+    <row r="295" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="15"/>
+      <c r="B295" s="35"/>
+      <c r="C295" s="89"/>
+      <c r="D295" s="89"/>
+      <c r="E295" s="89"/>
+      <c r="F295" s="89"/>
+      <c r="G295" s="89"/>
+    </row>
+    <row r="296" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="15"/>
+      <c r="B296" s="35"/>
+      <c r="C296" s="89"/>
+      <c r="D296" s="89"/>
+      <c r="E296" s="89"/>
+      <c r="F296" s="89"/>
+      <c r="G296" s="89"/>
+    </row>
+    <row r="297" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="15"/>
+      <c r="B297" s="35"/>
+      <c r="C297" s="89"/>
+      <c r="D297" s="89"/>
+      <c r="E297" s="89"/>
+      <c r="F297" s="89"/>
+      <c r="G297" s="89"/>
+    </row>
+    <row r="298" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="15"/>
+      <c r="B298" s="35"/>
+      <c r="C298" s="89"/>
+      <c r="D298" s="89"/>
+      <c r="E298" s="89"/>
+      <c r="F298" s="89"/>
+      <c r="G298" s="89"/>
+    </row>
+    <row r="299" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="15"/>
+      <c r="B299" s="35"/>
+      <c r="C299" s="89"/>
+      <c r="D299" s="89"/>
+      <c r="E299" s="89"/>
+      <c r="F299" s="89"/>
+      <c r="G299" s="89"/>
+    </row>
+    <row r="300" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="15"/>
+      <c r="B300" s="35"/>
+      <c r="C300" s="89"/>
+      <c r="D300" s="89"/>
+      <c r="E300" s="89"/>
+      <c r="F300" s="89"/>
+      <c r="G300" s="89"/>
+    </row>
+    <row r="301" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="15"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="89"/>
+      <c r="D301" s="89"/>
+      <c r="E301" s="89"/>
+      <c r="F301" s="89"/>
+      <c r="G301" s="89"/>
+    </row>
+    <row r="302" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="15"/>
+      <c r="B302" s="35"/>
+      <c r="C302" s="89"/>
+      <c r="D302" s="89"/>
+      <c r="E302" s="89"/>
+      <c r="F302" s="89"/>
+      <c r="G302" s="89"/>
+    </row>
+    <row r="303" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="15"/>
+      <c r="B303" s="35"/>
+      <c r="C303" s="89"/>
+      <c r="D303" s="89"/>
+      <c r="E303" s="89"/>
+      <c r="F303" s="89"/>
+      <c r="G303" s="89"/>
+    </row>
+    <row r="304" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="15"/>
+      <c r="B304" s="35"/>
+      <c r="C304" s="89"/>
+      <c r="D304" s="89"/>
+      <c r="E304" s="89"/>
+      <c r="F304" s="89"/>
+      <c r="G304" s="89"/>
+    </row>
+    <row r="305" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="15"/>
+      <c r="B305" s="15"/>
+      <c r="C305" s="17"/>
+      <c r="D305" s="17"/>
+      <c r="E305" s="17"/>
+      <c r="F305" s="17"/>
+      <c r="G305" s="17"/>
+    </row>
+    <row r="306" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="15"/>
+      <c r="B306" s="15"/>
+      <c r="C306" s="17"/>
+      <c r="D306" s="17"/>
+      <c r="E306" s="17"/>
+      <c r="F306" s="17"/>
+      <c r="G306" s="17"/>
+    </row>
+    <row r="307" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="15"/>
+      <c r="B307" s="35"/>
+      <c r="C307" s="89"/>
+      <c r="D307" s="89"/>
+      <c r="E307" s="89"/>
+      <c r="F307" s="89"/>
+      <c r="G307" s="89"/>
+    </row>
+    <row r="308" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="15"/>
+      <c r="B308" s="15"/>
+      <c r="C308" s="17"/>
+      <c r="D308" s="17"/>
+      <c r="E308" s="17"/>
+      <c r="F308" s="17"/>
+      <c r="G308" s="17"/>
+    </row>
+    <row r="309" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="15"/>
+      <c r="B309" s="15"/>
+      <c r="C309" s="17"/>
+      <c r="D309" s="17"/>
+      <c r="E309" s="17"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A120:G121"/>
+    <mergeCell ref="A185:G186"/>
+    <mergeCell ref="A249:G250"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A29:G30"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55787532-57A9-4723-9484-4B25A989D2BC}">
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="13" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+    </row>
+    <row r="3" spans="1:14" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+    </row>
+    <row r="5" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="41">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="41">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="41">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="41">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="41">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="41">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="41">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="41">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="41">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="41">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="41">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="41">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="41">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="41">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="41">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="41">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="41">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="41">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M23" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="41">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M24" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="41">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+      <c r="B26" s="41">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M26" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="41">
+        <v>25</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M27" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="41">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6">
+        <v>100</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="41">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6">
+        <v>200</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="41">
+        <v>30</v>
+      </c>
+      <c r="C30" s="6">
+        <v>300</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="41">
+        <v>45</v>
+      </c>
+      <c r="C31" s="6">
+        <v>412</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="41">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6">
+        <v>412</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="41">
+        <v>47</v>
+      </c>
+      <c r="C33" s="6">
+        <v>412</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="41">
+        <v>48</v>
+      </c>
+      <c r="C34" s="6">
+        <v>412</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="41">
+        <v>49</v>
+      </c>
+      <c r="C35" s="6">
+        <v>412</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="41">
+        <v>50</v>
+      </c>
+      <c r="C36" s="6">
+        <v>412</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M36" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="41">
+        <v>51</v>
+      </c>
+      <c r="C37" s="6">
+        <v>412</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="41">
+        <v>52</v>
+      </c>
+      <c r="C38" s="6">
+        <v>412</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M38" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="41">
+        <v>53</v>
+      </c>
+      <c r="C39" s="6">
+        <v>412</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="41">
+        <v>54</v>
+      </c>
+      <c r="C40" s="6">
+        <v>412</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="42">
+        <v>58</v>
+      </c>
+      <c r="C41" s="6">
+        <v>413</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{606AF150-2DF7-454C-9C64-4A4B934166E3}"/>
+    <hyperlink ref="M6" r:id="rId2" xr:uid="{F1A9C6E4-19CF-407A-9807-0819259436B9}"/>
+    <hyperlink ref="M7" r:id="rId3" xr:uid="{D4A69612-5B41-4884-A6C6-9EE53AE947FD}"/>
+    <hyperlink ref="M8" r:id="rId4" xr:uid="{272BA75B-BE65-4FB1-8108-7C496F640F19}"/>
+    <hyperlink ref="M9" r:id="rId5" xr:uid="{180D09D9-6427-4B26-BE52-6DB02703329B}"/>
+    <hyperlink ref="M10" r:id="rId6" xr:uid="{2BE7CF9E-2C12-490A-90AA-7343BFBA13BD}"/>
+    <hyperlink ref="M11" r:id="rId7" xr:uid="{B195206E-0377-4B0E-B9A9-51B91FEF21FD}"/>
+    <hyperlink ref="M12" r:id="rId8" xr:uid="{A3A5F91D-8709-4003-B229-D4D03AAFEBF4}"/>
+    <hyperlink ref="M13" r:id="rId9" xr:uid="{74F13D4B-33CA-4C0C-8EEE-0FAEB388E8B8}"/>
+    <hyperlink ref="M14" r:id="rId10" xr:uid="{9175CE21-AB18-4C52-BFFA-A01246B39393}"/>
+    <hyperlink ref="M15" r:id="rId11" xr:uid="{0C4155CF-6500-494C-B9CE-3BF8360FD8DE}"/>
+    <hyperlink ref="M16" r:id="rId12" xr:uid="{51337785-B6A7-44C6-92AD-DD46939DEF49}"/>
+    <hyperlink ref="M17" r:id="rId13" xr:uid="{231D67F4-76FB-4A35-ABBB-57E0D282736F}"/>
+    <hyperlink ref="M18" r:id="rId14" xr:uid="{CCA9B7DB-4255-41AE-8FE0-75E92FE8CF78}"/>
+    <hyperlink ref="M19" r:id="rId15" xr:uid="{F7F90328-DCA5-4ED8-A178-B1D89FB87C1B}"/>
+    <hyperlink ref="M20" r:id="rId16" xr:uid="{DF440844-3C7C-4B9E-A927-F8D43375D418}"/>
+    <hyperlink ref="M21" r:id="rId17" xr:uid="{E596A135-2BD5-4F7B-8CE9-CA05473A576C}"/>
+    <hyperlink ref="M22" r:id="rId18" xr:uid="{C8F8D112-6D8F-4650-A9D8-13EEF4F24802}"/>
+    <hyperlink ref="M23" r:id="rId19" xr:uid="{53A83415-54A7-44FC-95F9-DAA5908A26CC}"/>
+    <hyperlink ref="M24" r:id="rId20" xr:uid="{5466A4F7-5BAE-4320-AA81-84DDD75C5DE6}"/>
+    <hyperlink ref="M25" r:id="rId21" xr:uid="{6F2277BE-29EC-4CA0-875F-7FC3F25EBB2F}"/>
+    <hyperlink ref="M26" r:id="rId22" xr:uid="{F5B05251-F9A7-40CB-B85B-2895D49FCB5C}"/>
+    <hyperlink ref="M27" r:id="rId23" xr:uid="{364B5985-568B-4566-AB6F-5AE8EC52131C}"/>
+    <hyperlink ref="M29" r:id="rId24" xr:uid="{65CB433B-6624-4FA2-9868-DCB30987AB15}"/>
+    <hyperlink ref="M28" r:id="rId25" xr:uid="{40358380-18F0-4C36-A3F5-0DC935FBDBD2}"/>
+    <hyperlink ref="M30" r:id="rId26" xr:uid="{A75D5FAD-0CAE-4DA9-9CA8-BD487000512D}"/>
+    <hyperlink ref="M31" r:id="rId27" xr:uid="{139729F9-FEA0-4A62-9225-962AA626A5BF}"/>
+    <hyperlink ref="M32" r:id="rId28" xr:uid="{880AAEA5-77C0-4AA5-B4B9-6DF8551E0736}"/>
+    <hyperlink ref="M33" r:id="rId29" xr:uid="{9CA1AB45-F348-45DA-8D32-81CFA1DD828D}"/>
+    <hyperlink ref="M34" r:id="rId30" xr:uid="{E06F37DB-ACBD-4BDF-9F96-30E46EE37CAD}"/>
+    <hyperlink ref="M35" r:id="rId31" xr:uid="{FF3BB828-91F4-4A66-826C-0031B6914B4C}"/>
+    <hyperlink ref="M36" r:id="rId32" xr:uid="{74963E6C-948F-44DC-9C32-42EAFF95D71D}"/>
+    <hyperlink ref="M37" r:id="rId33" xr:uid="{A4C9180A-14E1-4D8B-9C2E-F1FEDC96B1E6}"/>
+    <hyperlink ref="M38" r:id="rId34" xr:uid="{193F0950-CAFC-4E60-A7A3-7BD10271F12A}"/>
+    <hyperlink ref="M39" r:id="rId35" xr:uid="{51BC2243-697F-4DD5-9E36-6AFC22634ECC}"/>
+    <hyperlink ref="M40" r:id="rId36" xr:uid="{15026D2D-497D-43B8-A90D-628F80019752}"/>
+    <hyperlink ref="M41" r:id="rId37" xr:uid="{21BCC1F9-B82F-4654-AD5A-0722DB502AF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
+</worksheet>
 </file>